--- a/outputs_HGR/test-o__Selenomonadales.xlsx
+++ b/outputs_HGR/test-o__Selenomonadales.xlsx
@@ -1268,10 +1268,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0011069115914148497</v>
+        <v>0.0017188734707889175</v>
       </c>
       <c r="C2">
-        <v>0.99889308840858515</v>
+        <v>0.99828112652921108</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1282,10 +1282,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.022909526658378865</v>
+        <v>0.045208752922082818</v>
       </c>
       <c r="C3">
-        <v>0.97709047334162114</v>
+        <v>0.95479124707791718</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1296,10 +1296,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0053052910772416473</v>
+        <v>0.0063060666325208681</v>
       </c>
       <c r="C4">
-        <v>0.99469470892275835</v>
+        <v>0.99369393336747913</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1310,10 +1310,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1429659657435054</v>
+        <v>0.24986141611299531</v>
       </c>
       <c r="C5">
-        <v>0.8570340342564946</v>
+        <v>0.75013858388700472</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1324,10 +1324,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.0018132727710609142</v>
+        <v>0.0035362068036960403</v>
       </c>
       <c r="C6">
-        <v>0.99818672722893909</v>
+        <v>0.99646379319630396</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1338,10 +1338,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.00054623990475810569</v>
+        <v>0.00098374395168454587</v>
       </c>
       <c r="C7">
-        <v>0.99945376009524189</v>
+        <v>0.99901625604831545</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1352,10 +1352,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.0010871985666304207</v>
+        <v>0.0020052867474580349</v>
       </c>
       <c r="C8">
-        <v>0.99891280143336958</v>
+        <v>0.99799471325254197</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1366,10 +1366,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.081114806920081994</v>
+        <v>0.120934085255199</v>
       </c>
       <c r="C9">
-        <v>0.91888519307991801</v>
+        <v>0.879065914744801</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1380,10 +1380,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.044084680173729462</v>
+        <v>0.088233385773111017</v>
       </c>
       <c r="C10">
-        <v>0.95591531982627054</v>
+        <v>0.91176661422688909</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1394,10 +1394,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.050295488195011395</v>
+        <v>0.081326885361402201</v>
       </c>
       <c r="C11">
-        <v>0.9497045118049886</v>
+        <v>0.9186731146385978</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1408,10 +1408,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.0015423064687600796</v>
+        <v>0.0028405840655915116</v>
       </c>
       <c r="C12">
-        <v>0.99845769353123992</v>
+        <v>0.99715941593440849</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1422,10 +1422,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.0018391562321483645</v>
+        <v>0.0021511442287935889</v>
       </c>
       <c r="C13">
-        <v>0.99816084376785164</v>
+        <v>0.99784885577120641</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1436,10 +1436,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.058551084185048397</v>
+        <v>0.10870002103221976</v>
       </c>
       <c r="C14">
-        <v>0.94144891581495171</v>
+        <v>0.89129997896778035</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1450,10 +1450,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.0018391562321483645</v>
+        <v>0.0021511442287935889</v>
       </c>
       <c r="C15">
-        <v>0.99816084376785164</v>
+        <v>0.99784885577120641</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1464,10 +1464,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.0018391562321483645</v>
+        <v>0.0021511442287935889</v>
       </c>
       <c r="C16">
-        <v>0.99816084376785164</v>
+        <v>0.99784885577120641</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1478,10 +1478,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.0014207130293538706</v>
+        <v>0.002654463772489235</v>
       </c>
       <c r="C17">
-        <v>0.99857928697064613</v>
+        <v>0.99734553622751076</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1492,10 +1492,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.052354807749624643</v>
+        <v>0.084262621126642623</v>
       </c>
       <c r="C18">
-        <v>0.94764519225037536</v>
+        <v>0.91573737887335738</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1506,10 +1506,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.0046587862317383211</v>
+        <v>0.0052733975983233483</v>
       </c>
       <c r="C19">
-        <v>0.99534121376826168</v>
+        <v>0.99472660240167665</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1520,10 +1520,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.0014597103460565197</v>
+        <v>0.00083766836732124261</v>
       </c>
       <c r="C20">
-        <v>0.99854028965394348</v>
+        <v>0.99916233163267876</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1534,10 +1534,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.00053556271292054536</v>
+        <v>0.00067748971379288925</v>
       </c>
       <c r="C21">
-        <v>0.99946443728707945</v>
+        <v>0.99932251028620711</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1548,10 +1548,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.0013713631824263661</v>
+        <v>0.0023234673328863531</v>
       </c>
       <c r="C22">
-        <v>0.99862863681757363</v>
+        <v>0.99767653266711365</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1562,10 +1562,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.0052256104297137007</v>
+        <v>0.00608963578221422</v>
       </c>
       <c r="C23">
-        <v>0.9947743895702863</v>
+        <v>0.99391036421778578</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1576,10 +1576,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.0019079358358906617</v>
+        <v>0.0023843913349910206</v>
       </c>
       <c r="C24">
-        <v>0.99809206416410934</v>
+        <v>0.99761560866500898</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1590,10 +1590,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.00099447329830348874</v>
+        <v>0.00084432212263230166</v>
       </c>
       <c r="C25">
-        <v>0.99900552670169651</v>
+        <v>0.9991556778773677</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1604,10 +1604,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.00093704460730792416</v>
+        <v>0.00052232040488320308</v>
       </c>
       <c r="C26">
-        <v>0.99906295539269208</v>
+        <v>0.9994776795951168</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1618,10 +1618,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.00088779078129885846</v>
+        <v>0.0021326317221124214</v>
       </c>
       <c r="C27">
-        <v>0.99911220921870114</v>
+        <v>0.99786736827788758</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1632,10 +1632,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.052354807749624643</v>
+        <v>0.084262621126642623</v>
       </c>
       <c r="C28">
-        <v>0.94764519225037536</v>
+        <v>0.91573737887335738</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1646,10 +1646,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.0045944736692972166</v>
+        <v>0.0048507817547571719</v>
       </c>
       <c r="C29">
-        <v>0.99540552633070278</v>
+        <v>0.99514921824524283</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1660,10 +1660,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.005350325390903965</v>
+        <v>0.007607935343055594</v>
       </c>
       <c r="C30">
-        <v>0.99464967460909604</v>
+        <v>0.99239206465694441</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1674,10 +1674,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.013263916247307829</v>
+        <v>0.014786720921376562</v>
       </c>
       <c r="C31">
-        <v>0.98673608375269217</v>
+        <v>0.98521327907862344</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1688,10 +1688,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.0029433850349802615</v>
+        <v>0.0057421817829164112</v>
       </c>
       <c r="C32">
-        <v>0.99705661496501974</v>
+        <v>0.99425781821708359</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1702,10 +1702,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.002696678545798803</v>
+        <v>0.0050511031146093233</v>
       </c>
       <c r="C33">
-        <v>0.9973033214542012</v>
+        <v>0.99494889688539068</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1716,10 +1716,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.077583420508719372</v>
+        <v>0.14533075001110274</v>
       </c>
       <c r="C34">
-        <v>0.92241657949128064</v>
+        <v>0.85466924998889726</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1730,10 +1730,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.0011383230884022266</v>
+        <v>0.0024081391884333003</v>
       </c>
       <c r="C35">
-        <v>0.99886167691159777</v>
+        <v>0.9975918608115667</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1744,10 +1744,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.0014794126457177148</v>
+        <v>0.0017766652486884693</v>
       </c>
       <c r="C36">
-        <v>0.99852058735428229</v>
+        <v>0.99822333475131153</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1758,10 +1758,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.032675539559998135</v>
+        <v>0.037370811464411791</v>
       </c>
       <c r="C37">
-        <v>0.96732446044000187</v>
+        <v>0.96262918853558821</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -1772,10 +1772,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.99999822349587997</v>
+        <v>0.99999659555137954</v>
       </c>
       <c r="C38">
-        <v>1.7765041200213037e-06</v>
+        <v>3.4044486204674552e-06</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1786,10 +1786,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.023744332760690882</v>
+        <v>0.065608179106900311</v>
       </c>
       <c r="C39">
-        <v>0.97625566723930912</v>
+        <v>0.93439182089309969</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1800,10 +1800,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.0015455889661908362</v>
+        <v>0.002978104893309963</v>
       </c>
       <c r="C40">
-        <v>0.99845441103380916</v>
+        <v>0.99702189510669004</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1814,10 +1814,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.0019504268365367894</v>
+        <v>0.002067330993884342</v>
       </c>
       <c r="C41">
-        <v>0.99804957316346321</v>
+        <v>0.99793266900611566</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1828,10 +1828,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.024501376916722273</v>
+        <v>0.04853225059456779</v>
       </c>
       <c r="C42">
-        <v>0.97549862308327773</v>
+        <v>0.95146774940543222</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1842,10 +1842,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.022721304401541301</v>
+        <v>0.028209203568029584</v>
       </c>
       <c r="C43">
-        <v>0.9772786955984587</v>
+        <v>0.97179079643197042</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1856,10 +1856,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.099746154444220858</v>
+        <v>0.12639302237109185</v>
       </c>
       <c r="C44">
-        <v>0.90025384555577914</v>
+        <v>0.87360697762890815</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1870,10 +1870,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.059774154656575096</v>
+        <v>0.12996863055871799</v>
       </c>
       <c r="C45">
-        <v>0.9402258453434249</v>
+        <v>0.87003136944128201</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1884,10 +1884,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.0031273161310546582</v>
+        <v>0.0051569600421957906</v>
       </c>
       <c r="C46">
-        <v>0.99687268386894534</v>
+        <v>0.99484303995780421</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1898,10 +1898,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.00099797773372722887</v>
+        <v>0.0022201788701222691</v>
       </c>
       <c r="C47">
-        <v>0.99900202226627277</v>
+        <v>0.99777982112987773</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -1912,10 +1912,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.00066985557653242989</v>
+        <v>0.0007740184636011449</v>
       </c>
       <c r="C48">
-        <v>0.99933014442346757</v>
+        <v>0.99922598153639886</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -1926,10 +1926,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.00082571729249913961</v>
+        <v>0.00196050735046438</v>
       </c>
       <c r="C49">
-        <v>0.99917428270750086</v>
+        <v>0.99803949264953562</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -1940,10 +1940,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.0023713692695503941</v>
+        <v>0.0023170213888674684</v>
       </c>
       <c r="C50">
-        <v>0.99762863073044961</v>
+        <v>0.99768297861113253</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -1954,10 +1954,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.001417673932849195</v>
+        <v>0.0016816786978515186</v>
       </c>
       <c r="C51">
-        <v>0.99858232606715081</v>
+        <v>0.99831832130214848</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -1968,10 +1968,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.00060064392286574009</v>
+        <v>0.00077448546600000778</v>
       </c>
       <c r="C52">
-        <v>0.99939935607713426</v>
+        <v>0.99922551453399999</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -1982,10 +1982,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.0032256905630180244</v>
+        <v>0.0083698847269018106</v>
       </c>
       <c r="C53">
-        <v>0.99677430943698198</v>
+        <v>0.99163011527309819</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -1996,10 +1996,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.0030650967440438714</v>
+        <v>0.0035206154658696809</v>
       </c>
       <c r="C54">
-        <v>0.99693490325595613</v>
+        <v>0.99647938453413032</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -2010,10 +2010,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.014955218792517044</v>
+        <v>0.017295579731337551</v>
       </c>
       <c r="C55">
-        <v>0.98504478120748296</v>
+        <v>0.98270442026866245</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -2024,10 +2024,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.00068499309372149764</v>
+        <v>0.00063285581410787994</v>
       </c>
       <c r="C56">
-        <v>0.9993150069062785</v>
+        <v>0.99936714418589212</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -2038,10 +2038,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.0011798636011541852</v>
+        <v>0.0011712315701082332</v>
       </c>
       <c r="C57">
-        <v>0.99882013639884581</v>
+        <v>0.99882876842989177</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -2052,10 +2052,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.070866756141976017</v>
+        <v>0.13461336493431197</v>
       </c>
       <c r="C58">
-        <v>0.92913324385802398</v>
+        <v>0.86538663506568803</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -2066,10 +2066,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.01524739081905091</v>
+        <v>0.023954826101573953</v>
       </c>
       <c r="C59">
-        <v>0.98475260918094909</v>
+        <v>0.97604517389842604</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -2080,10 +2080,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.0016932892767931307</v>
+        <v>0.0034783074773695466</v>
       </c>
       <c r="C60">
-        <v>0.99830671072320687</v>
+        <v>0.99652169252263045</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -2094,10 +2094,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.013975827233436267</v>
+        <v>0.018999313938611984</v>
       </c>
       <c r="C61">
-        <v>0.98602417276656373</v>
+        <v>0.98100068606138802</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -2108,10 +2108,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.0016521196194975163</v>
+        <v>0.0023963642545178354</v>
       </c>
       <c r="C62">
-        <v>0.99834788038050248</v>
+        <v>0.99760363574548216</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -2122,10 +2122,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.045266540574804948</v>
+        <v>0.080731194939885675</v>
       </c>
       <c r="C63">
-        <v>0.95473345942519505</v>
+        <v>0.91926880506011432</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -2136,10 +2136,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.039835778956482382</v>
+        <v>0.060859092726448849</v>
       </c>
       <c r="C64">
-        <v>0.96016422104351762</v>
+        <v>0.93914090727355115</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -2150,10 +2150,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.0018644073232904068</v>
+        <v>0.0024675087069677692</v>
       </c>
       <c r="C65">
-        <v>0.99813559267670959</v>
+        <v>0.99753249129303223</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -2164,10 +2164,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.95133285147300706</v>
+        <v>0.94546110144779216</v>
       </c>
       <c r="C66">
-        <v>0.048667148526992929</v>
+        <v>0.054538898552207872</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -2178,10 +2178,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.00042709968249632357</v>
+        <v>0.00097957530083703226</v>
       </c>
       <c r="C67">
-        <v>0.99957290031750368</v>
+        <v>0.99902042469916297</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -2192,10 +2192,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.0012237026893155978</v>
+        <v>0.0020022683652811679</v>
       </c>
       <c r="C68">
-        <v>0.9987762973106844</v>
+        <v>0.99799773163471883</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -2206,10 +2206,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.00039873119959554781</v>
+        <v>0.00039946185044303917</v>
       </c>
       <c r="C69">
-        <v>0.99960126880040445</v>
+        <v>0.99960053814955696</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -2220,10 +2220,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.00098214218201075898</v>
+        <v>0.0011809603845777117</v>
       </c>
       <c r="C70">
-        <v>0.99901785781798924</v>
+        <v>0.99881903961542229</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -2234,10 +2234,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.049692473265873463</v>
+        <v>0.11037441728402453</v>
       </c>
       <c r="C71">
-        <v>0.95030752673412655</v>
+        <v>0.88962558271597558</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -2248,10 +2248,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.088685204952071772</v>
+        <v>0.14768094391949405</v>
       </c>
       <c r="C72">
-        <v>0.91131479504792823</v>
+        <v>0.85231905608050595</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -2262,10 +2262,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.00095123617572212549</v>
+        <v>0.00051572766021712457</v>
       </c>
       <c r="C73">
-        <v>0.99904876382427787</v>
+        <v>0.99948427233978288</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -2276,10 +2276,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.00083037050431300496</v>
+        <v>0.0010770642469972724</v>
       </c>
       <c r="C74">
-        <v>0.999169629495687</v>
+        <v>0.99892293575300273</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -2290,10 +2290,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.019814051196103022</v>
+        <v>0.037760356589828015</v>
       </c>
       <c r="C75">
-        <v>0.98018594880389698</v>
+        <v>0.96223964341017199</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -2304,10 +2304,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.0047510808798765236</v>
+        <v>0.009000475239065775</v>
       </c>
       <c r="C76">
-        <v>0.99524891912012348</v>
+        <v>0.99099952476093423</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -2318,10 +2318,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.071311968698145267</v>
+        <v>0.09886967536582747</v>
       </c>
       <c r="C77">
-        <v>0.92868803130185473</v>
+        <v>0.90113032463417253</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -2332,10 +2332,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.050815331588188517</v>
+        <v>0.09191949404800713</v>
       </c>
       <c r="C78">
-        <v>0.94918466841181148</v>
+        <v>0.90808050595199286</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -2346,10 +2346,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.0016007320165369876</v>
+        <v>0.0025403180026958294</v>
       </c>
       <c r="C79">
-        <v>0.99839926798346301</v>
+        <v>0.99745968199730417</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -2360,10 +2360,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.044900902247655528</v>
+        <v>0.076229067465683475</v>
       </c>
       <c r="C80">
-        <v>0.95509909775234447</v>
+        <v>0.92377093253431652</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -2374,10 +2374,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.067237858537997242</v>
+        <v>0.11332147739338538</v>
       </c>
       <c r="C81">
-        <v>0.93276214146200276</v>
+        <v>0.88667852260661462</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -2388,10 +2388,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.045119521085788102</v>
+        <v>0.076718197966488932</v>
       </c>
       <c r="C82">
-        <v>0.95488047891421191</v>
+        <v>0.92328180203351107</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -2402,10 +2402,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.077084061959759143</v>
+        <v>0.12290864153880998</v>
       </c>
       <c r="C83">
-        <v>0.92291593804024086</v>
+        <v>0.87709135846119002</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -2416,10 +2416,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.26035051169764123</v>
+        <v>0.28098686610345824</v>
       </c>
       <c r="C84">
-        <v>0.73964948830235877</v>
+        <v>0.71901313389654176</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -2430,10 +2430,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.000603004343364133</v>
+        <v>0.00049417669450790846</v>
       </c>
       <c r="C85">
-        <v>0.99939699565663587</v>
+        <v>0.99950582330549209</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -2444,10 +2444,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.00083912561801691155</v>
+        <v>0.00088222575588869923</v>
       </c>
       <c r="C86">
-        <v>0.99916087438198309</v>
+        <v>0.9991177742441113</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -2458,10 +2458,10 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.99520879151144548</v>
+        <v>0.99700403998040787</v>
       </c>
       <c r="C87">
-        <v>0.0047912084885545535</v>
+        <v>0.0029959600195921436</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2472,10 +2472,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.00024366862622271501</v>
+        <v>0.00013547195893814923</v>
       </c>
       <c r="C88">
-        <v>0.99975633137377728</v>
+        <v>0.99986452804106185</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -2486,10 +2486,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.00032821538375005233</v>
+        <v>0.00028601421936003124</v>
       </c>
       <c r="C89">
-        <v>0.99967178461624995</v>
+        <v>0.99971398578063997</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -2500,10 +2500,10 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.0012197841113132935</v>
+        <v>0.00081018984055170051</v>
       </c>
       <c r="C90">
-        <v>0.99878021588868671</v>
+        <v>0.9991898101594483</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -2514,10 +2514,10 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.00022940585034791905</v>
+        <v>0.00024833178742966755</v>
       </c>
       <c r="C91">
-        <v>0.99977059414965208</v>
+        <v>0.99975166821257033</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -2528,10 +2528,10 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.053482838904994945</v>
+        <v>0.056869157304670681</v>
       </c>
       <c r="C92">
-        <v>0.94651716109500506</v>
+        <v>0.94313084269532932</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -2542,10 +2542,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.00079541180709974413</v>
+        <v>0.0005725201259740853</v>
       </c>
       <c r="C93">
-        <v>0.99920458819290026</v>
+        <v>0.99942747987402591</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -2556,10 +2556,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.048640424212430422</v>
+        <v>0.087911631186075159</v>
       </c>
       <c r="C94">
-        <v>0.95135957578756958</v>
+        <v>0.91208836881392485</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -2570,10 +2570,10 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.0048232505004621729</v>
+        <v>0.0051631361557266109</v>
       </c>
       <c r="C95">
-        <v>0.99517674949953783</v>
+        <v>0.99483686384427339</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -2584,10 +2584,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.0073135146463837453</v>
+        <v>0.013284640642532874</v>
       </c>
       <c r="C96">
-        <v>0.99268648535361625</v>
+        <v>0.98671535935746713</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -2598,10 +2598,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.78249853580626072</v>
+        <v>0.81356700339102772</v>
       </c>
       <c r="C97">
-        <v>0.21750146419373934</v>
+        <v>0.18643299660897225</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -2612,10 +2612,10 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.0030862226769883257</v>
+        <v>0.0036308022824674824</v>
       </c>
       <c r="C98">
-        <v>0.99691377732301167</v>
+        <v>0.99636919771753252</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -2626,10 +2626,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.99594209896907826</v>
+        <v>0.99613204552139223</v>
       </c>
       <c r="C99">
-        <v>0.0040579010309217513</v>
+        <v>0.003867954478607724</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -2640,10 +2640,10 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.99886061682549299</v>
+        <v>0.9988156603189654</v>
       </c>
       <c r="C100">
-        <v>0.0011393831745069726</v>
+        <v>0.0011843396810345558</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -2654,10 +2654,10 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.99997690354566193</v>
+        <v>0.99997909246640404</v>
       </c>
       <c r="C101">
-        <v>2.309645433805095e-05</v>
+        <v>2.0907533595950098e-05</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2668,10 +2668,10 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.99886061682549299</v>
+        <v>0.9988156603189654</v>
       </c>
       <c r="C102">
-        <v>0.0011393831745069726</v>
+        <v>0.0011843396810345558</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2682,10 +2682,10 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.99921643269555449</v>
+        <v>0.9994173304343037</v>
       </c>
       <c r="C103">
-        <v>0.00078356730444549593</v>
+        <v>0.00058266956569631733</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -2696,10 +2696,10 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.0058927611160806137</v>
+        <v>0.011176576136660343</v>
       </c>
       <c r="C104">
-        <v>0.99410723888391939</v>
+        <v>0.98882342386333966</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -2710,10 +2710,10 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.0018286941260787781</v>
+        <v>0.0043292833165095024</v>
       </c>
       <c r="C105">
-        <v>0.99817130587392122</v>
+        <v>0.9956707166834905</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -2724,10 +2724,10 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.00021770841033907917</v>
+        <v>0.0001712692795888815</v>
       </c>
       <c r="C106">
-        <v>0.99978229158966092</v>
+        <v>0.99982873072041112</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -2738,10 +2738,10 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.00027576539575502323</v>
+        <v>0.00023535843072486351</v>
       </c>
       <c r="C107">
-        <v>0.99972423460424498</v>
+        <v>0.99976464156927514</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -2752,10 +2752,10 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.015522375183032788</v>
+        <v>0.032259583453161711</v>
       </c>
       <c r="C108">
-        <v>0.98447762481696721</v>
+        <v>0.96774041654683829</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -2766,10 +2766,10 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.00044212991053882433</v>
+        <v>0.00036858209058820979</v>
       </c>
       <c r="C109">
-        <v>0.99955787008946118</v>
+        <v>0.99963141790941179</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -2780,10 +2780,10 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.00054638451386990194</v>
+        <v>0.00043506180127805832</v>
       </c>
       <c r="C110">
-        <v>0.9994536154861301</v>
+        <v>0.99956493819872194</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -2794,10 +2794,10 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.0017495191177675506</v>
+        <v>0.001563623346924059</v>
       </c>
       <c r="C111">
-        <v>0.99825048088223245</v>
+        <v>0.99843637665307594</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -2808,10 +2808,10 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.00025361178326466227</v>
+        <v>0.00034912236159845294</v>
       </c>
       <c r="C112">
-        <v>0.99974638821673534</v>
+        <v>0.99965087763840155</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -2822,10 +2822,10 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.00018489683881428576</v>
+        <v>0.00016218239681697888</v>
       </c>
       <c r="C113">
-        <v>0.99981510316118571</v>
+        <v>0.99983781760318302</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -2836,10 +2836,10 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.040483504384483449</v>
+        <v>0.083969935941143548</v>
       </c>
       <c r="C114">
-        <v>0.95951649561551655</v>
+        <v>0.91603006405885645</v>
       </c>
       <c r="D114">
         <v>2</v>
@@ -2850,10 +2850,10 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.0039882007031571964</v>
+        <v>0.010388111389916577</v>
       </c>
       <c r="C115">
-        <v>0.9960117992968428</v>
+        <v>0.98961188861008342</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -2864,10 +2864,10 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.00059619944226507737</v>
+        <v>0.0006488137419491391</v>
       </c>
       <c r="C116">
-        <v>0.99940380055773492</v>
+        <v>0.99935118625805086</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -2878,10 +2878,10 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.00087022022000182719</v>
+        <v>0.0011059033896249071</v>
       </c>
       <c r="C117">
-        <v>0.99912977977999817</v>
+        <v>0.99889409661037509</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -2892,10 +2892,10 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.0044732750017385525</v>
+        <v>0.010834573745010956</v>
       </c>
       <c r="C118">
-        <v>0.99552672499826145</v>
+        <v>0.98916542625498904</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -2906,10 +2906,10 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.055572292763843241</v>
+        <v>0.087435740194154676</v>
       </c>
       <c r="C119">
-        <v>0.94442770723615677</v>
+        <v>0.91256425980584532</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -2920,10 +2920,10 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.00033761912433627472</v>
+        <v>0.00024917940564905816</v>
       </c>
       <c r="C120">
-        <v>0.99966238087566373</v>
+        <v>0.99975082059435094</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -2934,10 +2934,10 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.014464423543107507</v>
+        <v>0.020458787568800263</v>
       </c>
       <c r="C121">
-        <v>0.98553557645689249</v>
+        <v>0.97954121243119974</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -2948,10 +2948,10 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.065043758202868562</v>
+        <v>0.090727955272877248</v>
       </c>
       <c r="C122">
-        <v>0.93495624179713144</v>
+        <v>0.90927204472712275</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -2962,10 +2962,10 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.053214919227724256</v>
+        <v>0.055404113462575788</v>
       </c>
       <c r="C123">
-        <v>0.94678508077227574</v>
+        <v>0.94459588653742421</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -2976,10 +2976,10 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.03856488540285341</v>
+        <v>0.069870176506187653</v>
       </c>
       <c r="C124">
-        <v>0.96143511459714659</v>
+        <v>0.93012982349381235</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -2990,10 +2990,10 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.0006392951967875149</v>
+        <v>0.00098273690381900369</v>
       </c>
       <c r="C125">
-        <v>0.99936070480321249</v>
+        <v>0.999017263096181</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -3004,10 +3004,10 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.093991547405037679</v>
+        <v>0.19638533136609071</v>
       </c>
       <c r="C126">
-        <v>0.90600845259496232</v>
+        <v>0.80361466863390929</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -3018,10 +3018,10 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.0030993558557024237</v>
+        <v>0.0071275210054390081</v>
       </c>
       <c r="C127">
-        <v>0.99690064414429758</v>
+        <v>0.99287247899456099</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -3032,10 +3032,10 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.0035569298134969785</v>
+        <v>0.0051922411325416862</v>
       </c>
       <c r="C128">
-        <v>0.99644307018650302</v>
+        <v>0.99480775886745831</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -3046,10 +3046,10 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.0018298691056010119</v>
+        <v>0.0025979283750304782</v>
       </c>
       <c r="C129">
-        <v>0.99817013089439899</v>
+        <v>0.99740207162496952</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -3060,10 +3060,10 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.0015382777439902906</v>
+        <v>0.0028801047009755503</v>
       </c>
       <c r="C130">
-        <v>0.99846172225600971</v>
+        <v>0.99711989529902445</v>
       </c>
       <c r="D130">
         <v>2</v>
@@ -3074,10 +3074,10 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.00061426362568672843</v>
+        <v>0.0014880970658803783</v>
       </c>
       <c r="C131">
-        <v>0.99938573637431327</v>
+        <v>0.99851190293411962</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -3088,10 +3088,10 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.00032084377403729381</v>
+        <v>0.00041247454072412809</v>
       </c>
       <c r="C132">
-        <v>0.99967915622596271</v>
+        <v>0.99958752545927587</v>
       </c>
       <c r="D132">
         <v>2</v>
@@ -3102,10 +3102,10 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.0045926351695974033</v>
+        <v>0.0119879910220696</v>
       </c>
       <c r="C133">
-        <v>0.9954073648304026</v>
+        <v>0.9880120089779304</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -3116,10 +3116,10 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.0018168796151709632</v>
+        <v>0.0031125993083502834</v>
       </c>
       <c r="C134">
-        <v>0.99818312038482904</v>
+        <v>0.99688740069164972</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -3130,10 +3130,10 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.040718401816297045</v>
+        <v>0.044670825494855571</v>
       </c>
       <c r="C135">
-        <v>0.95928159818370295</v>
+        <v>0.95532917450514443</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -3144,10 +3144,10 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.00016068128779977986</v>
+        <v>0.00026512851127680204</v>
       </c>
       <c r="C136">
-        <v>0.99983931871220022</v>
+        <v>0.9997348714887232</v>
       </c>
       <c r="D136">
         <v>2</v>
@@ -3158,10 +3158,10 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.00042965386046278642</v>
+        <v>0.00098403844595174039</v>
       </c>
       <c r="C137">
-        <v>0.99957034613953721</v>
+        <v>0.99901596155404826</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -3172,10 +3172,10 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.0014017881509917895</v>
+        <v>0.0024774969505932942</v>
       </c>
       <c r="C138">
-        <v>0.99859821184900821</v>
+        <v>0.99752250304940671</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -3186,10 +3186,10 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.0038211961083821633</v>
+        <v>0.0080743575715394034</v>
       </c>
       <c r="C139">
-        <v>0.99617880389161784</v>
+        <v>0.9919256424284606</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -3200,10 +3200,10 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.00059268027365688702</v>
+        <v>0.00078939391400068015</v>
       </c>
       <c r="C140">
-        <v>0.99940731972634311</v>
+        <v>0.99921060608599932</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -3214,10 +3214,10 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.0020105488398378668</v>
+        <v>0.0021959143666051562</v>
       </c>
       <c r="C141">
-        <v>0.99798945116016213</v>
+        <v>0.99780408563339484</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -3228,10 +3228,10 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.0016348674881980774</v>
+        <v>0.0025672423264004873</v>
       </c>
       <c r="C142">
-        <v>0.99836513251180192</v>
+        <v>0.99743275767359951</v>
       </c>
       <c r="D142">
         <v>2</v>
@@ -3242,10 +3242,10 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.00065369494006706219</v>
+        <v>0.0013643836483294702</v>
       </c>
       <c r="C143">
-        <v>0.99934630505993294</v>
+        <v>0.99863561635167053</v>
       </c>
       <c r="D143">
         <v>2</v>
@@ -3256,10 +3256,10 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.0025316756987504574</v>
+        <v>0.0053855418901458396</v>
       </c>
       <c r="C144">
-        <v>0.99746832430124954</v>
+        <v>0.99461445810985416</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -3270,10 +3270,10 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.001362377726736419</v>
+        <v>0.0033030866393413127</v>
       </c>
       <c r="C145">
-        <v>0.99863762227326358</v>
+        <v>0.99669691336065869</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -3284,10 +3284,10 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.035556056768309863</v>
+        <v>0.083096709119005463</v>
       </c>
       <c r="C146">
-        <v>0.96444394323169014</v>
+        <v>0.91690329088099454</v>
       </c>
       <c r="D146">
         <v>2</v>
@@ -3298,10 +3298,10 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.0015113462452984727</v>
+        <v>0.0046072294021844984</v>
       </c>
       <c r="C147">
-        <v>0.99848865375470153</v>
+        <v>0.9953927705978155</v>
       </c>
       <c r="D147">
         <v>2</v>
@@ -3312,10 +3312,10 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.0009501067543604691</v>
+        <v>0.001265273149434254</v>
       </c>
       <c r="C148">
-        <v>0.99904989324563953</v>
+        <v>0.99873472685056575</v>
       </c>
       <c r="D148">
         <v>2</v>
@@ -3326,10 +3326,10 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.0021911700264554135</v>
+        <v>0.0049159624423755766</v>
       </c>
       <c r="C149">
-        <v>0.99780882997354459</v>
+        <v>0.99508403755762442</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -3340,10 +3340,10 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.00085282249706519764</v>
+        <v>0.0010010080079045913</v>
       </c>
       <c r="C150">
-        <v>0.9991471775029348</v>
+        <v>0.99899899199209541</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -3354,10 +3354,10 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.00038674317379427942</v>
+        <v>0.00069837266536398879</v>
       </c>
       <c r="C151">
-        <v>0.99961325682620572</v>
+        <v>0.99930162733463601</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -3368,10 +3368,10 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.0010959140632154085</v>
+        <v>0.0017841788162655803</v>
       </c>
       <c r="C152">
-        <v>0.99890408593678459</v>
+        <v>0.99821582118373442</v>
       </c>
       <c r="D152">
         <v>2</v>
@@ -3382,10 +3382,10 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.0015491599579658955</v>
+        <v>0.0044351462761915705</v>
       </c>
       <c r="C153">
-        <v>0.9984508400420341</v>
+        <v>0.99556485372380843</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -3396,10 +3396,10 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.00057513637850625798</v>
+        <v>0.0013930655708603854</v>
       </c>
       <c r="C154">
-        <v>0.99942486362149374</v>
+        <v>0.99860693442913961</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -3410,10 +3410,10 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.00076167016539374632</v>
+        <v>0.0015753871943859907</v>
       </c>
       <c r="C155">
-        <v>0.99923832983460625</v>
+        <v>0.99842461280561401</v>
       </c>
       <c r="D155">
         <v>2</v>
@@ -3424,10 +3424,10 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.00031251694130696173</v>
+        <v>0.00061376004889646119</v>
       </c>
       <c r="C156">
-        <v>0.99968748305869304</v>
+        <v>0.99938623995110354</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -3438,10 +3438,10 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.0013137352436646266</v>
+        <v>0.0029943761803196134</v>
       </c>
       <c r="C157">
-        <v>0.99868626475633537</v>
+        <v>0.99700562381968039</v>
       </c>
       <c r="D157">
         <v>2</v>
@@ -3452,10 +3452,10 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.0012030747483432469</v>
+        <v>0.0026639980381538697</v>
       </c>
       <c r="C158">
-        <v>0.99879692525165675</v>
+        <v>0.99733600196184613</v>
       </c>
       <c r="D158">
         <v>2</v>
@@ -3466,10 +3466,10 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.00098843442059959319</v>
+        <v>0.0019430948461580666</v>
       </c>
       <c r="C159">
-        <v>0.99901156557940041</v>
+        <v>0.99805690515384193</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -3480,10 +3480,10 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.00073808196800917436</v>
+        <v>0.0015144095280449354</v>
       </c>
       <c r="C160">
-        <v>0.99926191803199083</v>
+        <v>0.99848559047195506</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -3494,10 +3494,10 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.0027672522503666697</v>
+        <v>0.0066086775383545904</v>
       </c>
       <c r="C161">
-        <v>0.99723274774963333</v>
+        <v>0.99339132246164541</v>
       </c>
       <c r="D161">
         <v>2</v>
@@ -3508,10 +3508,10 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.00028551390136577481</v>
+        <v>0.00030275973963367342</v>
       </c>
       <c r="C162">
-        <v>0.99971448609863423</v>
+        <v>0.99969724026036633</v>
       </c>
       <c r="D162">
         <v>2</v>
@@ -3522,10 +3522,10 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.001425424088153493</v>
+        <v>0.0037625342013677399</v>
       </c>
       <c r="C163">
-        <v>0.99857457591184651</v>
+        <v>0.99623746579863226</v>
       </c>
       <c r="D163">
         <v>2</v>
@@ -3536,10 +3536,10 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.00041089455273046749</v>
+        <v>0.0011779248063725767</v>
       </c>
       <c r="C164">
-        <v>0.99958910544726953</v>
+        <v>0.99882207519362742</v>
       </c>
       <c r="D164">
         <v>2</v>
@@ -3550,10 +3550,10 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.0014725510887255711</v>
+        <v>0.0025281301473873974</v>
       </c>
       <c r="C165">
-        <v>0.99852744891127443</v>
+        <v>0.9974718698526126</v>
       </c>
       <c r="D165">
         <v>2</v>
@@ -3564,10 +3564,10 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.00042089283278612388</v>
+        <v>0.00069079040833430749</v>
       </c>
       <c r="C166">
-        <v>0.99957910716721388</v>
+        <v>0.99930920959166569</v>
       </c>
       <c r="D166">
         <v>2</v>
@@ -3578,10 +3578,10 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.001013451430858292</v>
+        <v>0.0014073107502554638</v>
       </c>
       <c r="C167">
-        <v>0.99898654856914171</v>
+        <v>0.99859268924974454</v>
       </c>
       <c r="D167">
         <v>2</v>
@@ -3592,10 +3592,10 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.001329107912711347</v>
+        <v>0.0030264461621449805</v>
       </c>
       <c r="C168">
-        <v>0.99867089208728865</v>
+        <v>0.99697355383785502</v>
       </c>
       <c r="D168">
         <v>2</v>
@@ -3606,10 +3606,10 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.00075698307057547876</v>
+        <v>0.0012581260596171706</v>
       </c>
       <c r="C169">
-        <v>0.99924301692942452</v>
+        <v>0.99874187394038283</v>
       </c>
       <c r="D169">
         <v>2</v>
@@ -3620,10 +3620,10 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.0015289110443686971</v>
+        <v>0.0024374358292885701</v>
       </c>
       <c r="C170">
-        <v>0.9984710889556313</v>
+        <v>0.99756256417071143</v>
       </c>
       <c r="D170">
         <v>2</v>
@@ -3634,10 +3634,10 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.00031679388228256222</v>
+        <v>0.00059300322412969564</v>
       </c>
       <c r="C171">
-        <v>0.99968320611771744</v>
+        <v>0.9994069967758703</v>
       </c>
       <c r="D171">
         <v>2</v>
@@ -3648,10 +3648,10 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.00061220497572767041</v>
+        <v>0.0010389563291703929</v>
       </c>
       <c r="C172">
-        <v>0.99938779502427233</v>
+        <v>0.99896104367082961</v>
       </c>
       <c r="D172">
         <v>2</v>
@@ -3662,10 +3662,10 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.00075533020105900139</v>
+        <v>0.0014925040807185488</v>
       </c>
       <c r="C173">
-        <v>0.999244669798941</v>
+        <v>0.99850749591928145</v>
       </c>
       <c r="D173">
         <v>2</v>
@@ -3676,10 +3676,10 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.00029458961997519406</v>
+        <v>0.00042130574758192374</v>
       </c>
       <c r="C174">
-        <v>0.99970541038002481</v>
+        <v>0.99957869425241808</v>
       </c>
       <c r="D174">
         <v>2</v>
@@ -3690,10 +3690,10 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.00033345657801875372</v>
+        <v>0.00051493258765666905</v>
       </c>
       <c r="C175">
-        <v>0.99966654342198125</v>
+        <v>0.99948506741234333</v>
       </c>
       <c r="D175">
         <v>2</v>
@@ -3704,10 +3704,10 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.0013074503965386786</v>
+        <v>0.0019260745733836737</v>
       </c>
       <c r="C176">
-        <v>0.99869254960346132</v>
+        <v>0.99807392542661633</v>
       </c>
       <c r="D176">
         <v>2</v>
@@ -3718,10 +3718,10 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>0.00043023322063384667</v>
+        <v>0.00059260250577242157</v>
       </c>
       <c r="C177">
-        <v>0.99956976677936615</v>
+        <v>0.99940739749422758</v>
       </c>
       <c r="D177">
         <v>2</v>
@@ -3732,10 +3732,10 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>0.001510366683080133</v>
+        <v>0.0031878960253766135</v>
       </c>
       <c r="C178">
-        <v>0.99848963331691987</v>
+        <v>0.99681210397462339</v>
       </c>
       <c r="D178">
         <v>2</v>
@@ -3746,10 +3746,10 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0.00081534632167268306</v>
+        <v>0.0012638603496273326</v>
       </c>
       <c r="C179">
-        <v>0.99918465367832732</v>
+        <v>0.99873613965037267</v>
       </c>
       <c r="D179">
         <v>2</v>
@@ -3760,10 +3760,10 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.00081195047165083523</v>
+        <v>0.0017492624277403168</v>
       </c>
       <c r="C180">
-        <v>0.99918804952834916</v>
+        <v>0.99825073757225968</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -3774,10 +3774,10 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>0.00027416550050629596</v>
+        <v>0.00059029487195050301</v>
       </c>
       <c r="C181">
-        <v>0.9997258344994937</v>
+        <v>0.9994097051280495</v>
       </c>
       <c r="D181">
         <v>2</v>
@@ -3788,10 +3788,10 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0.00018679871734483819</v>
+        <v>0.00010969490482404254</v>
       </c>
       <c r="C182">
-        <v>0.99981320128265516</v>
+        <v>0.99989030509517596</v>
       </c>
       <c r="D182">
         <v>2</v>
@@ -3802,10 +3802,10 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0.02312361813766961</v>
+        <v>0.023823366590746353</v>
       </c>
       <c r="C183">
-        <v>0.97687638186233039</v>
+        <v>0.97617663340925365</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -3816,10 +3816,10 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>0.083348694134191215</v>
+        <v>0.10745978126792623</v>
       </c>
       <c r="C184">
-        <v>0.91665130586580879</v>
+        <v>0.89254021873207379</v>
       </c>
       <c r="D184">
         <v>2</v>
@@ -3830,10 +3830,10 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>0.018215417141857371</v>
+        <v>0.035523727559259033</v>
       </c>
       <c r="C185">
-        <v>0.98178458285814263</v>
+        <v>0.96447627244074097</v>
       </c>
       <c r="D185">
         <v>2</v>
@@ -3844,10 +3844,10 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>0.00099702327398842883</v>
+        <v>0.00062637161162037991</v>
       </c>
       <c r="C186">
-        <v>0.99900297672601157</v>
+        <v>0.99937362838837962</v>
       </c>
       <c r="D186">
         <v>2</v>
@@ -3858,10 +3858,10 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>0.011185782538227551</v>
+        <v>0.026926810321517225</v>
       </c>
       <c r="C187">
-        <v>0.98881421746177245</v>
+        <v>0.97307318967848278</v>
       </c>
       <c r="D187">
         <v>2</v>
@@ -3872,10 +3872,10 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.096920612065165224</v>
+        <v>0.13022939648844012</v>
       </c>
       <c r="C188">
-        <v>0.90307938793483478</v>
+        <v>0.86977060351155988</v>
       </c>
       <c r="D188">
         <v>2</v>
@@ -3886,10 +3886,10 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>0.00026319452546796906</v>
+        <v>0.00025564253898224809</v>
       </c>
       <c r="C189">
-        <v>0.99973680547453203</v>
+        <v>0.99974435746101775</v>
       </c>
       <c r="D189">
         <v>2</v>
@@ -3900,10 +3900,10 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>0.074514433411562053</v>
+        <v>0.13141021924888818</v>
       </c>
       <c r="C190">
-        <v>0.92548556658843795</v>
+        <v>0.86858978075111182</v>
       </c>
       <c r="D190">
         <v>2</v>
@@ -3914,10 +3914,10 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0.047877819525156011</v>
+        <v>0.056254166893882518</v>
       </c>
       <c r="C191">
-        <v>0.95212218047484398</v>
+        <v>0.94374583310611748</v>
       </c>
       <c r="D191">
         <v>2</v>
@@ -3928,10 +3928,10 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>0.0019386958500918761</v>
+        <v>0.0042599634579366663</v>
       </c>
       <c r="C192">
-        <v>0.99806130414990812</v>
+        <v>0.99574003654206333</v>
       </c>
       <c r="D192">
         <v>2</v>
@@ -3942,10 +3942,10 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>0.029153567886679332</v>
+        <v>0.060421353273800826</v>
       </c>
       <c r="C193">
-        <v>0.97084643211332067</v>
+        <v>0.93957864672619917</v>
       </c>
       <c r="D193">
         <v>2</v>
@@ -3956,10 +3956,10 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>0.00013237236510776906</v>
+        <v>9.305429329853343e-05</v>
       </c>
       <c r="C194">
-        <v>0.99986762763489223</v>
+        <v>0.99990694570670147</v>
       </c>
       <c r="D194">
         <v>2</v>
@@ -3970,10 +3970,10 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.06610050280344959</v>
+        <v>0.094169253131147795</v>
       </c>
       <c r="C195">
-        <v>0.93389949719655041</v>
+        <v>0.90583074686885223</v>
       </c>
       <c r="D195">
         <v>2</v>
@@ -3984,10 +3984,10 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0.074514433411562053</v>
+        <v>0.13141021924888818</v>
       </c>
       <c r="C196">
-        <v>0.92548556658843795</v>
+        <v>0.86858978075111182</v>
       </c>
       <c r="D196">
         <v>2</v>
@@ -3998,10 +3998,10 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.050905792454512655</v>
+        <v>0.096675854819690876</v>
       </c>
       <c r="C197">
-        <v>0.94909420754548735</v>
+        <v>0.90332414518030912</v>
       </c>
       <c r="D197">
         <v>2</v>
@@ -4012,10 +4012,10 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0.043258207200275955</v>
+        <v>0.067699666162051586</v>
       </c>
       <c r="C198">
-        <v>0.95674179279972404</v>
+        <v>0.93230033383794841</v>
       </c>
       <c r="D198">
         <v>2</v>
@@ -4026,10 +4026,10 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.09477710766756052</v>
+        <v>0.15316513754927163</v>
       </c>
       <c r="C199">
-        <v>0.90522289233243947</v>
+        <v>0.84683486245072837</v>
       </c>
       <c r="D199">
         <v>2</v>
@@ -4040,10 +4040,10 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0.11425112427197991</v>
+        <v>0.18846879101717232</v>
       </c>
       <c r="C200">
-        <v>0.88574887572802008</v>
+        <v>0.81153120898282771</v>
       </c>
       <c r="D200">
         <v>2</v>
@@ -4054,10 +4054,10 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0.01595813118174727</v>
+        <v>0.01691749562468492</v>
       </c>
       <c r="C201">
-        <v>0.98404186881825273</v>
+        <v>0.98308250437531508</v>
       </c>
       <c r="D201">
         <v>2</v>
@@ -4068,10 +4068,10 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.046008143288394747</v>
+        <v>0.082668512135378069</v>
       </c>
       <c r="C202">
-        <v>0.95399185671160525</v>
+        <v>0.91733148786462193</v>
       </c>
       <c r="D202">
         <v>2</v>
@@ -4082,10 +4082,10 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>0.091359902748381891</v>
+        <v>0.17358892863823849</v>
       </c>
       <c r="C203">
-        <v>0.9086400972516181</v>
+        <v>0.82641107136176151</v>
       </c>
       <c r="D203">
         <v>2</v>
@@ -4096,10 +4096,10 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.020519412595880304</v>
+        <v>0.0438610000113131</v>
       </c>
       <c r="C204">
-        <v>0.9794805874041197</v>
+        <v>0.9561389999886869</v>
       </c>
       <c r="D204">
         <v>2</v>
@@ -4110,10 +4110,10 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>0.025334234153916117</v>
+        <v>0.036143167394425468</v>
       </c>
       <c r="C205">
-        <v>0.97466576584608389</v>
+        <v>0.96385683260557453</v>
       </c>
       <c r="D205">
         <v>2</v>
@@ -4124,10 +4124,10 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.072884613010039678</v>
+        <v>0.1230769136323261</v>
       </c>
       <c r="C206">
-        <v>0.92711538698996032</v>
+        <v>0.87692308636767391</v>
       </c>
       <c r="D206">
         <v>2</v>
@@ -4138,10 +4138,10 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.080661420528343908</v>
+        <v>0.13942867268694559</v>
       </c>
       <c r="C207">
-        <v>0.91933857947165609</v>
+        <v>0.86057132731305452</v>
       </c>
       <c r="D207">
         <v>2</v>
@@ -4152,10 +4152,10 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.070382108989960446</v>
+        <v>0.12018861083177379</v>
       </c>
       <c r="C208">
-        <v>0.92961789101003955</v>
+        <v>0.87981138916822621</v>
       </c>
       <c r="D208">
         <v>2</v>
@@ -4166,10 +4166,10 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.070499142851105812</v>
+        <v>0.11908077647489235</v>
       </c>
       <c r="C209">
-        <v>0.92950085714889419</v>
+        <v>0.88091922352510765</v>
       </c>
       <c r="D209">
         <v>2</v>
@@ -4180,10 +4180,10 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.0014148682880152919</v>
+        <v>0.001689524055680347</v>
       </c>
       <c r="C210">
-        <v>0.99858513171198471</v>
+        <v>0.99831047594431965</v>
       </c>
       <c r="D210">
         <v>2</v>
@@ -4194,10 +4194,10 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.096920612065165224</v>
+        <v>0.13022939648844012</v>
       </c>
       <c r="C211">
-        <v>0.90307938793483478</v>
+        <v>0.86977060351155988</v>
       </c>
       <c r="D211">
         <v>2</v>
@@ -4208,10 +4208,10 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.057450181728674783</v>
+        <v>0.10603140554061254</v>
       </c>
       <c r="C212">
-        <v>0.94254981827132522</v>
+        <v>0.89396859445938748</v>
       </c>
       <c r="D212">
         <v>2</v>
@@ -4222,10 +4222,10 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>0.029642319223099234</v>
+        <v>0.035990525964348263</v>
       </c>
       <c r="C213">
-        <v>0.97035768077690077</v>
+        <v>0.96400947403565174</v>
       </c>
       <c r="D213">
         <v>2</v>
@@ -4236,10 +4236,10 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.053593663192241792</v>
+        <v>0.093710472764684485</v>
       </c>
       <c r="C214">
-        <v>0.94640633680775832</v>
+        <v>0.90628952723531553</v>
       </c>
       <c r="D214">
         <v>2</v>
@@ -4250,10 +4250,10 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0.07077469482211296</v>
+        <v>0.16267903684810325</v>
       </c>
       <c r="C215">
-        <v>0.92922530517788704</v>
+        <v>0.83732096315189675</v>
       </c>
       <c r="D215">
         <v>2</v>
@@ -4264,10 +4264,10 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.021229225542395147</v>
+        <v>0.027747497013832945</v>
       </c>
       <c r="C216">
-        <v>0.97877077445760485</v>
+        <v>0.97225250298616706</v>
       </c>
       <c r="D216">
         <v>2</v>
@@ -4278,10 +4278,10 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.03946718977237762</v>
+        <v>0.035679635797980613</v>
       </c>
       <c r="C217">
-        <v>0.96053281022762238</v>
+        <v>0.96432036420201939</v>
       </c>
       <c r="D217">
         <v>2</v>
@@ -4292,10 +4292,10 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.055593055673459957</v>
+        <v>0.13478027859903419</v>
       </c>
       <c r="C218">
-        <v>0.94440694432654004</v>
+        <v>0.86521972140096581</v>
       </c>
       <c r="D218">
         <v>2</v>
@@ -4306,10 +4306,10 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0.00057812075558627551</v>
+        <v>0.00052217563009693269</v>
       </c>
       <c r="C219">
-        <v>0.99942187924441372</v>
+        <v>0.99947782436990307</v>
       </c>
       <c r="D219">
         <v>2</v>
@@ -4320,10 +4320,10 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0.042712551551684075</v>
+        <v>0.088190030493734528</v>
       </c>
       <c r="C220">
-        <v>0.95728744844831593</v>
+        <v>0.91180996950626547</v>
       </c>
       <c r="D220">
         <v>2</v>
@@ -4334,10 +4334,10 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>0.076689367202480985</v>
+        <v>0.13057144304489177</v>
       </c>
       <c r="C221">
-        <v>0.92331063279751902</v>
+        <v>0.86942855695510823</v>
       </c>
       <c r="D221">
         <v>2</v>
@@ -4348,10 +4348,10 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>0.0727385803255578</v>
+        <v>0.15342748270805806</v>
       </c>
       <c r="C222">
-        <v>0.9272614196744422</v>
+        <v>0.84657251729194194</v>
       </c>
       <c r="D222">
         <v>2</v>
@@ -4362,10 +4362,10 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0.030061714042362686</v>
+        <v>0.059330552269327819</v>
       </c>
       <c r="C223">
-        <v>0.96993828595763731</v>
+        <v>0.94066944773067218</v>
       </c>
       <c r="D223">
         <v>2</v>
@@ -4376,10 +4376,10 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.00014847070427903564</v>
+        <v>9.9278319661388905e-05</v>
       </c>
       <c r="C224">
-        <v>0.99985152929572096</v>
+        <v>0.99990072168033861</v>
       </c>
       <c r="D224">
         <v>2</v>
@@ -4390,10 +4390,10 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>0.055887224900775134</v>
+        <v>0.094844564594361525</v>
       </c>
       <c r="C225">
-        <v>0.94411277509922487</v>
+        <v>0.90515543540563848</v>
       </c>
       <c r="D225">
         <v>2</v>
@@ -4404,10 +4404,10 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.024354534558587049</v>
+        <v>0.047057567485471852</v>
       </c>
       <c r="C226">
-        <v>0.97564546544141295</v>
+        <v>0.95294243251452815</v>
       </c>
       <c r="D226">
         <v>2</v>
@@ -4418,10 +4418,10 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.087443983682686924</v>
+        <v>0.13003211634199086</v>
       </c>
       <c r="C227">
-        <v>0.91255601631731309</v>
+        <v>0.86996788365800914</v>
       </c>
       <c r="D227">
         <v>2</v>
@@ -4432,10 +4432,10 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.046097137742918355</v>
+        <v>0.071361404278335372</v>
       </c>
       <c r="C228">
-        <v>0.95390286225708165</v>
+        <v>0.92863859572166463</v>
       </c>
       <c r="D228">
         <v>2</v>
@@ -4446,10 +4446,10 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.0023390866611329164</v>
+        <v>0.0024260499657386969</v>
       </c>
       <c r="C229">
-        <v>0.99766091333886708</v>
+        <v>0.9975739500342613</v>
       </c>
       <c r="D229">
         <v>2</v>
@@ -4460,10 +4460,10 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>0.035038430181971059</v>
+        <v>0.062359072738909505</v>
       </c>
       <c r="C230">
-        <v>0.96496156981802905</v>
+        <v>0.9376409272610905</v>
       </c>
       <c r="D230">
         <v>2</v>
@@ -4474,10 +4474,10 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>0.0711122721833094</v>
+        <v>0.097567485623371031</v>
       </c>
       <c r="C231">
-        <v>0.9288877278166906</v>
+        <v>0.90243251437662897</v>
       </c>
       <c r="D231">
         <v>2</v>
@@ -4488,10 +4488,10 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>0.033829995273342073</v>
+        <v>0.06488058030355992</v>
       </c>
       <c r="C232">
-        <v>0.96617000472665793</v>
+        <v>0.93511941969644008</v>
       </c>
       <c r="D232">
         <v>2</v>
@@ -4502,10 +4502,10 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>0.0018147191130312157</v>
+        <v>0.0024054768953323258</v>
       </c>
       <c r="C233">
-        <v>0.99818528088696878</v>
+        <v>0.99759452310466767</v>
       </c>
       <c r="D233">
         <v>2</v>
@@ -4516,10 +4516,10 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>0.0018147191130312157</v>
+        <v>0.0024054768953323258</v>
       </c>
       <c r="C234">
-        <v>0.99818528088696878</v>
+        <v>0.99759452310466767</v>
       </c>
       <c r="D234">
         <v>2</v>
@@ -4530,10 +4530,10 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>0.0013833948176467104</v>
+        <v>0.0044912844265144747</v>
       </c>
       <c r="C235">
-        <v>0.99861660518235329</v>
+        <v>0.99550871557348553</v>
       </c>
       <c r="D235">
         <v>2</v>
@@ -4544,10 +4544,10 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>0.0033867149765808287</v>
+        <v>0.0078179659731467677</v>
       </c>
       <c r="C236">
-        <v>0.99661328502341917</v>
+        <v>0.99218203402685323</v>
       </c>
       <c r="D236">
         <v>2</v>
@@ -4558,10 +4558,10 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>0.0043404369606883098</v>
+        <v>0.0084887849693338069</v>
       </c>
       <c r="C237">
-        <v>0.99565956303931169</v>
+        <v>0.99151121503066619</v>
       </c>
       <c r="D237">
         <v>2</v>
@@ -4572,10 +4572,10 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0.0012820501015471386</v>
+        <v>0.0015930282159947182</v>
       </c>
       <c r="C238">
-        <v>0.99871794989845286</v>
+        <v>0.99840697178400528</v>
       </c>
       <c r="D238">
         <v>2</v>
@@ -4586,10 +4586,10 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>0.0003106074298458994</v>
+        <v>0.00045476094204333078</v>
       </c>
       <c r="C239">
-        <v>0.9996893925701541</v>
+        <v>0.99954523905795667</v>
       </c>
       <c r="D239">
         <v>2</v>
@@ -4600,10 +4600,10 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>0.0012987217783457794</v>
+        <v>0.0029425925723383095</v>
       </c>
       <c r="C240">
-        <v>0.99870127822165422</v>
+        <v>0.99705740742766169</v>
       </c>
       <c r="D240">
         <v>2</v>
@@ -4614,10 +4614,10 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.00087560696162325435</v>
+        <v>0.0015052644209539998</v>
       </c>
       <c r="C241">
-        <v>0.99912439303837675</v>
+        <v>0.998494735579046</v>
       </c>
       <c r="D241">
         <v>2</v>
@@ -4628,10 +4628,10 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0.00053045000912288476</v>
+        <v>0.00050849702786215367</v>
       </c>
       <c r="C242">
-        <v>0.99946954999087712</v>
+        <v>0.99949150297213785</v>
       </c>
       <c r="D242">
         <v>2</v>
@@ -4642,10 +4642,10 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0.00052009335304048498</v>
+        <v>0.00053567777338758837</v>
       </c>
       <c r="C243">
-        <v>0.99947990664695952</v>
+        <v>0.99946432222661241</v>
       </c>
       <c r="D243">
         <v>2</v>
@@ -4656,10 +4656,10 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0.00065083864506187972</v>
+        <v>0.0011392962684175778</v>
       </c>
       <c r="C244">
-        <v>0.99934916135493812</v>
+        <v>0.99886070373158242</v>
       </c>
       <c r="D244">
         <v>2</v>
@@ -4670,10 +4670,10 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>0.0010627564030829539</v>
+        <v>0.0019609585314429578</v>
       </c>
       <c r="C245">
-        <v>0.99893724359691705</v>
+        <v>0.99803904146855704</v>
       </c>
       <c r="D245">
         <v>2</v>
@@ -4684,10 +4684,10 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0.00086316296852939622</v>
+        <v>0.0011629801905114201</v>
       </c>
       <c r="C246">
-        <v>0.9991368370314706</v>
+        <v>0.99883701980948858</v>
       </c>
       <c r="D246">
         <v>2</v>
@@ -4698,10 +4698,10 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>0.00092355324714687992</v>
+        <v>0.0015072775245226211</v>
       </c>
       <c r="C247">
-        <v>0.99907644675285312</v>
+        <v>0.99849272247547738</v>
       </c>
       <c r="D247">
         <v>2</v>
@@ -4712,10 +4712,10 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>0.00046252863688434065</v>
+        <v>0.00064581170129285326</v>
       </c>
       <c r="C248">
-        <v>0.99953747136311566</v>
+        <v>0.99935418829870715</v>
       </c>
       <c r="D248">
         <v>2</v>
@@ -4726,10 +4726,10 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0.00046711706325142099</v>
+        <v>0.00072850167721505443</v>
       </c>
       <c r="C249">
-        <v>0.99953288293674858</v>
+        <v>0.99927149832278495</v>
       </c>
       <c r="D249">
         <v>2</v>
@@ -4740,10 +4740,10 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>0.0004031214108816128</v>
+        <v>0.00055338088565171084</v>
       </c>
       <c r="C250">
-        <v>0.99959687858911839</v>
+        <v>0.99944661911434829</v>
       </c>
       <c r="D250">
         <v>2</v>
@@ -4754,10 +4754,10 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>0.001618137249114415</v>
+        <v>0.0026368578277877752</v>
       </c>
       <c r="C251">
-        <v>0.99838186275088558</v>
+        <v>0.99736314217221222</v>
       </c>
       <c r="D251">
         <v>2</v>
@@ -4768,10 +4768,10 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>0.0032020580718095104</v>
+        <v>0.0046147736383169713</v>
       </c>
       <c r="C252">
-        <v>0.99679794192819049</v>
+        <v>0.99538522636168303</v>
       </c>
       <c r="D252">
         <v>2</v>
@@ -4782,10 +4782,10 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>0.00071253173974405992</v>
+        <v>0.0014221534346336995</v>
       </c>
       <c r="C253">
-        <v>0.99928746826025594</v>
+        <v>0.9985778465653663</v>
       </c>
       <c r="D253">
         <v>2</v>
@@ -4796,10 +4796,10 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>0.0011862677229986796</v>
+        <v>0.0040967973932749535</v>
       </c>
       <c r="C254">
-        <v>0.99881373227700132</v>
+        <v>0.99590320260672505</v>
       </c>
       <c r="D254">
         <v>2</v>
@@ -4810,10 +4810,10 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>0.037245966121243201</v>
+        <v>0.063718857764427317</v>
       </c>
       <c r="C255">
-        <v>0.9627540338787568</v>
+        <v>0.93628114223557268</v>
       </c>
       <c r="D255">
         <v>2</v>
@@ -4824,10 +4824,10 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>0.01958383370200123</v>
+        <v>0.032453323789136346</v>
       </c>
       <c r="C256">
-        <v>0.98041616629799877</v>
+        <v>0.96754667621086365</v>
       </c>
       <c r="D256">
         <v>2</v>
@@ -4838,10 +4838,10 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>0.0017849946603537559</v>
+        <v>0.0039312777523914377</v>
       </c>
       <c r="C257">
-        <v>0.99821500533964624</v>
+        <v>0.99606872224760856</v>
       </c>
       <c r="D257">
         <v>2</v>
@@ -4852,10 +4852,10 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>0.0015927520031242539</v>
+        <v>0.0046341929973378049</v>
       </c>
       <c r="C258">
-        <v>0.99840724799687575</v>
+        <v>0.9953658070026622</v>
       </c>
       <c r="D258">
         <v>2</v>
@@ -4866,10 +4866,10 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>0.001391699826039039</v>
+        <v>0.0026593941638475282</v>
       </c>
       <c r="C259">
-        <v>0.99860830017396096</v>
+        <v>0.99734060583615247</v>
       </c>
       <c r="D259">
         <v>2</v>
@@ -4880,10 +4880,10 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>0.00055620433675496184</v>
+        <v>0.0011492181055260398</v>
       </c>
       <c r="C260">
-        <v>0.99944379566324504</v>
+        <v>0.99885078189447396</v>
       </c>
       <c r="D260">
         <v>2</v>
@@ -4894,10 +4894,10 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>0.001391699826039039</v>
+        <v>0.0026593941638475282</v>
       </c>
       <c r="C261">
-        <v>0.99860830017396096</v>
+        <v>0.99734060583615247</v>
       </c>
       <c r="D261">
         <v>2</v>
@@ -4908,10 +4908,10 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>0.0016035084300364266</v>
+        <v>0.0027302845015363397</v>
       </c>
       <c r="C262">
-        <v>0.99839649156996357</v>
+        <v>0.99726971549846366</v>
       </c>
       <c r="D262">
         <v>2</v>
@@ -4922,10 +4922,10 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>0.0013061003611218869</v>
+        <v>0.0033986372361153316</v>
       </c>
       <c r="C263">
-        <v>0.99869389963887811</v>
+        <v>0.99660136276388467</v>
       </c>
       <c r="D263">
         <v>2</v>
@@ -4936,10 +4936,10 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>0.0017014495570013555</v>
+        <v>0.0029324371555153883</v>
       </c>
       <c r="C264">
-        <v>0.99829855044299864</v>
+        <v>0.99706756284448461</v>
       </c>
       <c r="D264">
         <v>2</v>
@@ -4950,10 +4950,10 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>0.0032581069829000779</v>
+        <v>0.0055155527781229896</v>
       </c>
       <c r="C265">
-        <v>0.99674189301709992</v>
+        <v>0.99448444722187701</v>
       </c>
       <c r="D265">
         <v>2</v>
@@ -4964,10 +4964,10 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>0.0014786211349160361</v>
+        <v>0.0022095136813644611</v>
       </c>
       <c r="C266">
-        <v>0.99852137886508396</v>
+        <v>0.99779048631863554</v>
       </c>
       <c r="D266">
         <v>2</v>
@@ -4978,10 +4978,10 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>0.0022359669996018239</v>
+        <v>0.0051268537367644695</v>
       </c>
       <c r="C267">
-        <v>0.99776403300039818</v>
+        <v>0.99487314626323553</v>
       </c>
       <c r="D267">
         <v>2</v>
@@ -4992,10 +4992,10 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>0.0012375117880962794</v>
+        <v>0.0018622582744072247</v>
       </c>
       <c r="C268">
-        <v>0.99876248821190372</v>
+        <v>0.99813774172559278</v>
       </c>
       <c r="D268">
         <v>2</v>
@@ -5006,10 +5006,10 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>0.069798874307459347</v>
+        <v>0.12982604691879673</v>
       </c>
       <c r="C269">
-        <v>0.93020112569254065</v>
+        <v>0.87017395308120327</v>
       </c>
       <c r="D269">
         <v>2</v>
@@ -5020,10 +5020,10 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>0.036413465161809877</v>
+        <v>0.062620867895147758</v>
       </c>
       <c r="C270">
-        <v>0.96358653483819012</v>
+        <v>0.93737913210485224</v>
       </c>
       <c r="D270">
         <v>2</v>
@@ -5034,10 +5034,10 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>0.00057397631451561182</v>
+        <v>0.0011562896080188345</v>
       </c>
       <c r="C271">
-        <v>0.99942602368548439</v>
+        <v>0.99884371039198117</v>
       </c>
       <c r="D271">
         <v>2</v>
@@ -5048,10 +5048,10 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>0.0035629289689765864</v>
+        <v>0.008082002352897355</v>
       </c>
       <c r="C272">
-        <v>0.99643707103102341</v>
+        <v>0.99191799764710264</v>
       </c>
       <c r="D272">
         <v>2</v>
@@ -5062,10 +5062,10 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>0.023875465843154031</v>
+        <v>0.054205482909513325</v>
       </c>
       <c r="C273">
-        <v>0.97612453415684597</v>
+        <v>0.94579451709048667</v>
       </c>
       <c r="D273">
         <v>2</v>
@@ -5076,10 +5076,10 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>0.036660675747439475</v>
+        <v>0.060117155866078908</v>
       </c>
       <c r="C274">
-        <v>0.96333932425256052</v>
+        <v>0.93988284413392109</v>
       </c>
       <c r="D274">
         <v>2</v>
@@ -5090,10 +5090,10 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>0.037880789585989505</v>
+        <v>0.080407400832482434</v>
       </c>
       <c r="C275">
-        <v>0.9621192104140105</v>
+        <v>0.91959259916751757</v>
       </c>
       <c r="D275">
         <v>2</v>
@@ -5104,10 +5104,10 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>0.043806168560684422</v>
+        <v>0.081074067434269703</v>
       </c>
       <c r="C276">
-        <v>0.95619383143931558</v>
+        <v>0.9189259325657303</v>
       </c>
       <c r="D276">
         <v>2</v>
@@ -5118,10 +5118,10 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>0.03448388722266893</v>
+        <v>0.088601065463491446</v>
       </c>
       <c r="C277">
-        <v>0.96551611277733107</v>
+        <v>0.91139893453650855</v>
       </c>
       <c r="D277">
         <v>2</v>
@@ -5132,10 +5132,10 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>0.060379879682364468</v>
+        <v>0.096434018246005726</v>
       </c>
       <c r="C278">
-        <v>0.93962012031763553</v>
+        <v>0.90356598175399427</v>
       </c>
       <c r="D278">
         <v>2</v>
@@ -5146,10 +5146,10 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>0.017257035960036249</v>
+        <v>0.019891336512359081</v>
       </c>
       <c r="C279">
-        <v>0.98274296403996375</v>
+        <v>0.98010866348764092</v>
       </c>
       <c r="D279">
         <v>2</v>
@@ -5160,10 +5160,10 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>0.053309495820337061</v>
+        <v>0.058056116342819701</v>
       </c>
       <c r="C280">
-        <v>0.94669050417966294</v>
+        <v>0.94194388365718029</v>
       </c>
       <c r="D280">
         <v>2</v>
@@ -5174,10 +5174,10 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>0.058472729522065059</v>
+        <v>0.089949205071825689</v>
       </c>
       <c r="C281">
-        <v>0.94152727047793494</v>
+        <v>0.91005079492817431</v>
       </c>
       <c r="D281">
         <v>2</v>
@@ -5188,10 +5188,10 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>0.034492079810090281</v>
+        <v>0.071731728432622655</v>
       </c>
       <c r="C282">
-        <v>0.96550792018990972</v>
+        <v>0.92826827156737735</v>
       </c>
       <c r="D282">
         <v>2</v>
@@ -5202,10 +5202,10 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>0.032781609540776913</v>
+        <v>0.05631578162843609</v>
       </c>
       <c r="C283">
-        <v>0.96721839045922309</v>
+        <v>0.94368421837156391</v>
       </c>
       <c r="D283">
         <v>2</v>
@@ -5216,10 +5216,10 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>0.040531698390832149</v>
+        <v>0.083438832799692775</v>
       </c>
       <c r="C284">
-        <v>0.95946830160916785</v>
+        <v>0.91656116720030723</v>
       </c>
       <c r="D284">
         <v>2</v>
@@ -5230,10 +5230,10 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>0.048917387947999824</v>
+        <v>0.096231195056190155</v>
       </c>
       <c r="C285">
-        <v>0.95108261205200018</v>
+        <v>0.90376880494380984</v>
       </c>
       <c r="D285">
         <v>2</v>
@@ -5244,10 +5244,10 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>0.032781609540776913</v>
+        <v>0.05631578162843609</v>
       </c>
       <c r="C286">
-        <v>0.96721839045922309</v>
+        <v>0.94368421837156391</v>
       </c>
       <c r="D286">
         <v>2</v>
@@ -5258,10 +5258,10 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>0.053396332166043114</v>
+        <v>0.086193536644038504</v>
       </c>
       <c r="C287">
-        <v>0.94660366783395689</v>
+        <v>0.9138064633559615</v>
       </c>
       <c r="D287">
         <v>2</v>
@@ -5272,10 +5272,10 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>0.075211186613726166</v>
+        <v>0.14149742115733868</v>
       </c>
       <c r="C288">
-        <v>0.92478881338627383</v>
+        <v>0.85850257884266135</v>
       </c>
       <c r="D288">
         <v>2</v>
@@ -5286,10 +5286,10 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>0.020636624862072517</v>
+        <v>0.03379022478824123</v>
       </c>
       <c r="C289">
-        <v>0.97936337513792748</v>
+        <v>0.96620977521175877</v>
       </c>
       <c r="D289">
         <v>2</v>
@@ -5300,10 +5300,10 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>3.0786596047494008e-05</v>
+        <v>1.024729420839865e-05</v>
       </c>
       <c r="C290">
-        <v>0.99996921340395251</v>
+        <v>0.9999897527057916</v>
       </c>
       <c r="D290">
         <v>2</v>
@@ -5314,10 +5314,10 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>0.087920837514738448</v>
+        <v>0.13525903829645902</v>
       </c>
       <c r="C291">
-        <v>0.91207916248526155</v>
+        <v>0.86474096170354098</v>
       </c>
       <c r="D291">
         <v>2</v>
@@ -5328,10 +5328,10 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>0.059597083489462133</v>
+        <v>0.09403112582666151</v>
       </c>
       <c r="C292">
-        <v>0.94040291651053787</v>
+        <v>0.90596887417333849</v>
       </c>
       <c r="D292">
         <v>2</v>
@@ -5342,10 +5342,10 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>0.066351522652059125</v>
+        <v>0.10691578703097904</v>
       </c>
       <c r="C293">
-        <v>0.93364847734794087</v>
+        <v>0.89308421296902096</v>
       </c>
       <c r="D293">
         <v>2</v>
@@ -5356,10 +5356,10 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>0.066351522652059125</v>
+        <v>0.10691578703097904</v>
       </c>
       <c r="C294">
-        <v>0.93364847734794087</v>
+        <v>0.89308421296902096</v>
       </c>
       <c r="D294">
         <v>2</v>
@@ -5370,10 +5370,10 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>0.15875985089590583</v>
+        <v>0.24178021957412466</v>
       </c>
       <c r="C295">
-        <v>0.84124014910409428</v>
+        <v>0.75821978042587534</v>
       </c>
       <c r="D295">
         <v>2</v>
@@ -5384,10 +5384,10 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>0.080636707515742811</v>
+        <v>0.13367245308144216</v>
       </c>
       <c r="C296">
-        <v>0.91936329248425719</v>
+        <v>0.86632754691855784</v>
       </c>
       <c r="D296">
         <v>2</v>
@@ -5398,10 +5398,10 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>0.053774478103742696</v>
+        <v>0.10690774477017483</v>
       </c>
       <c r="C297">
-        <v>0.9462255218962573</v>
+        <v>0.89309225522982516</v>
       </c>
       <c r="D297">
         <v>2</v>
@@ -5412,10 +5412,10 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>0.071190080872486017</v>
+        <v>0.11330659625099547</v>
       </c>
       <c r="C298">
-        <v>0.92880991912751398</v>
+        <v>0.88669340374900452</v>
       </c>
       <c r="D298">
         <v>2</v>
@@ -5426,10 +5426,10 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>0.10191279552634913</v>
+        <v>0.17051199408027529</v>
       </c>
       <c r="C299">
-        <v>0.89808720447365087</v>
+        <v>0.82948800591972471</v>
       </c>
       <c r="D299">
         <v>2</v>
@@ -5440,10 +5440,10 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>0.029200302548397783</v>
+        <v>0.047452256127396668</v>
       </c>
       <c r="C300">
-        <v>0.97079969745160222</v>
+        <v>0.95254774387260333</v>
       </c>
       <c r="D300">
         <v>2</v>
@@ -5454,10 +5454,10 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>0.087204919114934554</v>
+        <v>0.13573418997041989</v>
       </c>
       <c r="C301">
-        <v>0.91279508088506545</v>
+        <v>0.86426581002958014</v>
       </c>
       <c r="D301">
         <v>2</v>
@@ -5468,10 +5468,10 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>0.0010896755507531219</v>
+        <v>0.00098977812410283583</v>
       </c>
       <c r="C302">
-        <v>0.99891032444924688</v>
+        <v>0.99901022187589716</v>
       </c>
       <c r="D302">
         <v>2</v>
@@ -5482,10 +5482,10 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>0.034393852900307609</v>
+        <v>0.058246179470598292</v>
       </c>
       <c r="C303">
-        <v>0.96560614709969239</v>
+        <v>0.94175382052940171</v>
       </c>
       <c r="D303">
         <v>2</v>
@@ -5496,10 +5496,10 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>0.0023198308499888798</v>
+        <v>0.002509149725227644</v>
       </c>
       <c r="C304">
-        <v>0.99768016915001112</v>
+        <v>0.99749085027477236</v>
       </c>
       <c r="D304">
         <v>2</v>
@@ -5510,10 +5510,10 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>0.00033540946651144932</v>
+        <v>0.00035534473090770286</v>
       </c>
       <c r="C305">
-        <v>0.99966459053348855</v>
+        <v>0.9996446552690923</v>
       </c>
       <c r="D305">
         <v>2</v>
@@ -5524,10 +5524,10 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>0.001558030322615811</v>
+        <v>0.0018247259734320842</v>
       </c>
       <c r="C306">
-        <v>0.99844196967738419</v>
+        <v>0.99817527402656792</v>
       </c>
       <c r="D306">
         <v>2</v>
@@ -5538,10 +5538,10 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>0.0016762125868767797</v>
+        <v>0.001615109642345014</v>
       </c>
       <c r="C307">
-        <v>0.99832378741312322</v>
+        <v>0.99838489035765499</v>
       </c>
       <c r="D307">
         <v>2</v>
@@ -5552,10 +5552,10 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>0.099580540660693995</v>
+        <v>0.17212948094118785</v>
       </c>
       <c r="C308">
-        <v>0.90041945933930601</v>
+        <v>0.82787051905881215</v>
       </c>
       <c r="D308">
         <v>2</v>
@@ -5566,10 +5566,10 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>0.046323948014550753</v>
+        <v>0.088751539655289244</v>
       </c>
       <c r="C309">
-        <v>0.95367605198544925</v>
+        <v>0.91124846034471074</v>
       </c>
       <c r="D309">
         <v>2</v>
@@ -5580,10 +5580,10 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>0.0048473885931459293</v>
+        <v>0.006375568320238223</v>
       </c>
       <c r="C310">
-        <v>0.99515261140685407</v>
+        <v>0.99362443167976178</v>
       </c>
       <c r="D310">
         <v>2</v>
@@ -5594,10 +5594,10 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>0.0007087554364793025</v>
+        <v>0.00096515082076409353</v>
       </c>
       <c r="C311">
-        <v>0.9992912445635207</v>
+        <v>0.99903484917923591</v>
       </c>
       <c r="D311">
         <v>2</v>
@@ -5608,10 +5608,10 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>0.0549028273261708</v>
+        <v>0.094027320034792194</v>
       </c>
       <c r="C312">
-        <v>0.9450971726738292</v>
+        <v>0.90597267996520781</v>
       </c>
       <c r="D312">
         <v>2</v>
@@ -5622,10 +5622,10 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>0.051407389136203685</v>
+        <v>0.10174959617010637</v>
       </c>
       <c r="C313">
-        <v>0.94859261086379632</v>
+        <v>0.89825040382989363</v>
       </c>
       <c r="D313">
         <v>2</v>
@@ -5636,10 +5636,10 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>0.10275565203724568</v>
+        <v>0.1713174892743029</v>
       </c>
       <c r="C314">
-        <v>0.89724434796275432</v>
+        <v>0.8286825107256971</v>
       </c>
       <c r="D314">
         <v>2</v>
@@ -5650,10 +5650,10 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>0.0014196712826644031</v>
+        <v>0.0016571278620256535</v>
       </c>
       <c r="C315">
-        <v>0.9985803287173356</v>
+        <v>0.99834287213797435</v>
       </c>
       <c r="D315">
         <v>2</v>
@@ -5664,10 +5664,10 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>0.00042185449327158953</v>
+        <v>0.00039698799300014187</v>
       </c>
       <c r="C316">
-        <v>0.99957814550672841</v>
+        <v>0.99960301200699986</v>
       </c>
       <c r="D316">
         <v>2</v>
@@ -5678,10 +5678,10 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>0.00046193144445194623</v>
+        <v>0.00048247404259171844</v>
       </c>
       <c r="C317">
-        <v>0.99953806855554805</v>
+        <v>0.99951752595740828</v>
       </c>
       <c r="D317">
         <v>2</v>
@@ -5692,10 +5692,10 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>0.0097523309906104583</v>
+        <v>0.011661141407582787</v>
       </c>
       <c r="C318">
-        <v>0.99024766900938954</v>
+        <v>0.98833885859241721</v>
       </c>
       <c r="D318">
         <v>2</v>
@@ -5706,10 +5706,10 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>0.077487289249885238</v>
+        <v>0.14205046468233606</v>
       </c>
       <c r="C319">
-        <v>0.92251271075011476</v>
+        <v>0.85794953531766394</v>
       </c>
       <c r="D319">
         <v>2</v>
@@ -5720,10 +5720,10 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>0.0041035759947559702</v>
+        <v>0.0042113658820814859</v>
       </c>
       <c r="C320">
-        <v>0.99589642400524403</v>
+        <v>0.99578863411791851</v>
       </c>
       <c r="D320">
         <v>2</v>
@@ -5734,10 +5734,10 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>0.0018804064495705486</v>
+        <v>0.0020258551049867624</v>
       </c>
       <c r="C321">
-        <v>0.99811959355042945</v>
+        <v>0.99797414489501324</v>
       </c>
       <c r="D321">
         <v>2</v>
@@ -5748,10 +5748,10 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>0.051407389136203685</v>
+        <v>0.10174959617010637</v>
       </c>
       <c r="C322">
-        <v>0.94859261086379632</v>
+        <v>0.89825040382989363</v>
       </c>
       <c r="D322">
         <v>2</v>
@@ -5762,10 +5762,10 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>0.0053703609510284966</v>
+        <v>0.0057971840975226119</v>
       </c>
       <c r="C323">
-        <v>0.9946296390489715</v>
+        <v>0.99420281590247739</v>
       </c>
       <c r="D323">
         <v>2</v>
@@ -5776,10 +5776,10 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>0.039166288983250142</v>
+        <v>0.055949507866621562</v>
       </c>
       <c r="C324">
-        <v>0.96083371101674986</v>
+        <v>0.94405049213337844</v>
       </c>
       <c r="D324">
         <v>2</v>
@@ -5790,10 +5790,10 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>0.002830243749227801</v>
+        <v>0.0053230298749965543</v>
       </c>
       <c r="C325">
-        <v>0.9971697562507722</v>
+        <v>0.99467697012500345</v>
       </c>
       <c r="D325">
         <v>2</v>
@@ -5804,10 +5804,10 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>0.039166288983250142</v>
+        <v>0.055949507866621562</v>
       </c>
       <c r="C326">
-        <v>0.96083371101674986</v>
+        <v>0.94405049213337844</v>
       </c>
       <c r="D326">
         <v>2</v>
@@ -5818,10 +5818,10 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>0.014200027757545919</v>
+        <v>0.020586630883342449</v>
       </c>
       <c r="C327">
-        <v>0.98579997224245408</v>
+        <v>0.97941336911665755</v>
       </c>
       <c r="D327">
         <v>2</v>
@@ -5832,10 +5832,10 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>0.089689975231231234</v>
+        <v>0.12411836579158197</v>
       </c>
       <c r="C328">
-        <v>0.91031002476876877</v>
+        <v>0.87588163420841803</v>
       </c>
       <c r="D328">
         <v>2</v>
@@ -5846,10 +5846,10 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>0.039166288983250142</v>
+        <v>0.055949507866621562</v>
       </c>
       <c r="C329">
-        <v>0.96083371101674986</v>
+        <v>0.94405049213337844</v>
       </c>
       <c r="D329">
         <v>2</v>
@@ -5860,10 +5860,10 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>0.002274832389962067</v>
+        <v>0.0041839731291311022</v>
       </c>
       <c r="C330">
-        <v>0.99772516761003793</v>
+        <v>0.9958160268708689</v>
       </c>
       <c r="D330">
         <v>2</v>
@@ -5874,10 +5874,10 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>0.099592084778831635</v>
+        <v>0.1531509437058918</v>
       </c>
       <c r="C331">
-        <v>0.90040791522116836</v>
+        <v>0.84684905629410823</v>
       </c>
       <c r="D331">
         <v>2</v>
@@ -5888,10 +5888,10 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>0.0026220088956232512</v>
+        <v>0.0055676236054695849</v>
       </c>
       <c r="C332">
-        <v>0.99737799110437675</v>
+        <v>0.99443237639453042</v>
       </c>
       <c r="D332">
         <v>2</v>
@@ -5902,10 +5902,10 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>0.00053371756255760072</v>
+        <v>0.00030819354822742007</v>
       </c>
       <c r="C333">
-        <v>0.9994662824374424</v>
+        <v>0.99969180645177258</v>
       </c>
       <c r="D333">
         <v>2</v>
@@ -5916,10 +5916,10 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>0.029937405286220797</v>
+        <v>0.058807386162889386</v>
       </c>
       <c r="C334">
-        <v>0.9700625947137792</v>
+        <v>0.94119261383711061</v>
       </c>
       <c r="D334">
         <v>2</v>
@@ -5930,10 +5930,10 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>0.039166288983250142</v>
+        <v>0.055949507866621562</v>
       </c>
       <c r="C335">
-        <v>0.96083371101674986</v>
+        <v>0.94405049213337844</v>
       </c>
       <c r="D335">
         <v>2</v>
@@ -5944,10 +5944,10 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>0.0026220088956232512</v>
+        <v>0.0055676236054695849</v>
       </c>
       <c r="C336">
-        <v>0.99737799110437675</v>
+        <v>0.99443237639453042</v>
       </c>
       <c r="D336">
         <v>2</v>
@@ -5958,10 +5958,10 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>0.078237191543049089</v>
+        <v>0.14143605769543066</v>
       </c>
       <c r="C337">
-        <v>0.92176280845695102</v>
+        <v>0.85856394230456934</v>
       </c>
       <c r="D337">
         <v>2</v>
@@ -5972,10 +5972,10 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>0.041347956794857921</v>
+        <v>0.073164067046874948</v>
       </c>
       <c r="C338">
-        <v>0.95865204320514208</v>
+        <v>0.92683593295312505</v>
       </c>
       <c r="D338">
         <v>2</v>
@@ -5986,10 +5986,10 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>0.0012062441380584765</v>
+        <v>0.0026974995970848736</v>
       </c>
       <c r="C339">
-        <v>0.99879375586194152</v>
+        <v>0.99730250040291513</v>
       </c>
       <c r="D339">
         <v>2</v>
@@ -6000,10 +6000,10 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>0.039166288983250142</v>
+        <v>0.055949507866621562</v>
       </c>
       <c r="C340">
-        <v>0.96083371101674986</v>
+        <v>0.94405049213337844</v>
       </c>
       <c r="D340">
         <v>2</v>
@@ -6014,10 +6014,10 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>0.047971155731291959</v>
+        <v>0.07638866814728984</v>
       </c>
       <c r="C341">
-        <v>0.95202884426870804</v>
+        <v>0.92361133185271016</v>
       </c>
       <c r="D341">
         <v>2</v>
@@ -6028,10 +6028,10 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>0.053606816632186916</v>
+        <v>0.095085493518760833</v>
       </c>
       <c r="C342">
-        <v>0.94639318336781308</v>
+        <v>0.90491450648123917</v>
       </c>
       <c r="D342">
         <v>2</v>
@@ -6042,10 +6042,10 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>0.00031026265181466339</v>
+        <v>0.0007491591121846497</v>
       </c>
       <c r="C343">
-        <v>0.99968973734818534</v>
+        <v>0.99925084088781535</v>
       </c>
       <c r="D343">
         <v>2</v>
@@ -6056,10 +6056,10 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>0.047971155731291959</v>
+        <v>0.07638866814728984</v>
       </c>
       <c r="C344">
-        <v>0.95202884426870804</v>
+        <v>0.92361133185271016</v>
       </c>
       <c r="D344">
         <v>2</v>
@@ -6070,10 +6070,10 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>0.0023238874439166501</v>
+        <v>0.0037188766779162608</v>
       </c>
       <c r="C345">
-        <v>0.99767611255608335</v>
+        <v>0.99628112332208374</v>
       </c>
       <c r="D345">
         <v>2</v>
@@ -6084,10 +6084,10 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>0.039166288983250142</v>
+        <v>0.055949507866621562</v>
       </c>
       <c r="C346">
-        <v>0.96083371101674986</v>
+        <v>0.94405049213337844</v>
       </c>
       <c r="D346">
         <v>2</v>
@@ -6098,10 +6098,10 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>0.039166288983250142</v>
+        <v>0.055949507866621562</v>
       </c>
       <c r="C347">
-        <v>0.96083371101674986</v>
+        <v>0.94405049213337844</v>
       </c>
       <c r="D347">
         <v>2</v>
@@ -6112,10 +6112,10 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>0.0014138417131175363</v>
+        <v>0.0035045281471878242</v>
       </c>
       <c r="C348">
-        <v>0.99858615828688246</v>
+        <v>0.99649547185281218</v>
       </c>
       <c r="D348">
         <v>2</v>
@@ -6126,10 +6126,10 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>0.002830243749227801</v>
+        <v>0.0053230298749965543</v>
       </c>
       <c r="C349">
-        <v>0.9971697562507722</v>
+        <v>0.99467697012500345</v>
       </c>
       <c r="D349">
         <v>2</v>
@@ -6140,10 +6140,10 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>0.099592084778831635</v>
+        <v>0.1531509437058918</v>
       </c>
       <c r="C350">
-        <v>0.90040791522116836</v>
+        <v>0.84684905629410823</v>
       </c>
       <c r="D350">
         <v>2</v>
@@ -6154,10 +6154,10 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>0.078410626968423047</v>
+        <v>0.12504161655856627</v>
       </c>
       <c r="C351">
-        <v>0.92158937303157695</v>
+        <v>0.87495838344143373</v>
       </c>
       <c r="D351">
         <v>2</v>
@@ -6168,10 +6168,10 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>0.00072416561805932478</v>
+        <v>0.0020202714879631323</v>
       </c>
       <c r="C352">
-        <v>0.99927583438194068</v>
+        <v>0.99797972851203687</v>
       </c>
       <c r="D352">
         <v>2</v>
@@ -6182,10 +6182,10 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>0.047971155731291959</v>
+        <v>0.07638866814728984</v>
       </c>
       <c r="C353">
-        <v>0.95202884426870804</v>
+        <v>0.92361133185271016</v>
       </c>
       <c r="D353">
         <v>2</v>
@@ -6196,10 +6196,10 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>0.077587508668705452</v>
+        <v>0.14536366213938978</v>
       </c>
       <c r="C354">
-        <v>0.92241249133129455</v>
+        <v>0.85463633786061022</v>
       </c>
       <c r="D354">
         <v>2</v>
@@ -6210,10 +6210,10 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>0.041347956794857921</v>
+        <v>0.073164067046874948</v>
       </c>
       <c r="C355">
-        <v>0.95865204320514208</v>
+        <v>0.92683593295312505</v>
       </c>
       <c r="D355">
         <v>2</v>
@@ -6224,10 +6224,10 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>0.039166288983250142</v>
+        <v>0.055949507866621562</v>
       </c>
       <c r="C356">
-        <v>0.96083371101674986</v>
+        <v>0.94405049213337844</v>
       </c>
       <c r="D356">
         <v>2</v>
@@ -6238,10 +6238,10 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>0.00016316188701170908</v>
+        <v>0.00022436144882298503</v>
       </c>
       <c r="C357">
-        <v>0.99983683811298829</v>
+        <v>0.99977563855117701</v>
       </c>
       <c r="D357">
         <v>2</v>
@@ -6252,10 +6252,10 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>0.00033106182058584288</v>
+        <v>0.00036950751668585186</v>
       </c>
       <c r="C358">
-        <v>0.99966893817941416</v>
+        <v>0.99963049248331415</v>
       </c>
       <c r="D358">
         <v>2</v>
@@ -6266,10 +6266,10 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>0.055021375935913275</v>
+        <v>0.08914510218844951</v>
       </c>
       <c r="C359">
-        <v>0.94497862406408673</v>
+        <v>0.91085489781155049</v>
       </c>
       <c r="D359">
         <v>2</v>
@@ -6280,10 +6280,10 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>0.047971155731291959</v>
+        <v>0.07638866814728984</v>
       </c>
       <c r="C360">
-        <v>0.95202884426870804</v>
+        <v>0.92361133185271016</v>
       </c>
       <c r="D360">
         <v>2</v>
@@ -6294,10 +6294,10 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>0.0026220088956232512</v>
+        <v>0.0055676236054695849</v>
       </c>
       <c r="C361">
-        <v>0.99737799110437675</v>
+        <v>0.99443237639453042</v>
       </c>
       <c r="D361">
         <v>2</v>
@@ -6308,10 +6308,10 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>0.039166288983250142</v>
+        <v>0.055949507866621562</v>
       </c>
       <c r="C362">
-        <v>0.96083371101674986</v>
+        <v>0.94405049213337844</v>
       </c>
       <c r="D362">
         <v>2</v>
@@ -6322,10 +6322,10 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>0.0026220088956232512</v>
+        <v>0.0055676236054695849</v>
       </c>
       <c r="C363">
-        <v>0.99737799110437675</v>
+        <v>0.99443237639453042</v>
       </c>
       <c r="D363">
         <v>2</v>
@@ -6336,10 +6336,10 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>0.00039005672918202006</v>
+        <v>0.0007614593817766302</v>
       </c>
       <c r="C364">
-        <v>0.99960994327081798</v>
+        <v>0.99923854061822337</v>
       </c>
       <c r="D364">
         <v>2</v>
@@ -6350,10 +6350,10 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>0.047971155731291959</v>
+        <v>0.07638866814728984</v>
       </c>
       <c r="C365">
-        <v>0.95202884426870804</v>
+        <v>0.92361133185271016</v>
       </c>
       <c r="D365">
         <v>2</v>
@@ -6364,10 +6364,10 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>0.0026220088956232512</v>
+        <v>0.0055676236054695849</v>
       </c>
       <c r="C366">
-        <v>0.99737799110437675</v>
+        <v>0.99443237639453042</v>
       </c>
       <c r="D366">
         <v>2</v>
@@ -6378,10 +6378,10 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>0.039166288983250142</v>
+        <v>0.055949507866621562</v>
       </c>
       <c r="C367">
-        <v>0.96083371101674986</v>
+        <v>0.94405049213337844</v>
       </c>
       <c r="D367">
         <v>2</v>
@@ -6392,10 +6392,10 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>0.0037686134108388947</v>
+        <v>0.0083561329874923818</v>
       </c>
       <c r="C368">
-        <v>0.99623138658916111</v>
+        <v>0.99164386701250762</v>
       </c>
       <c r="D368">
         <v>2</v>
@@ -6406,10 +6406,10 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>0.039166288983250142</v>
+        <v>0.055949507866621562</v>
       </c>
       <c r="C369">
-        <v>0.96083371101674986</v>
+        <v>0.94405049213337844</v>
       </c>
       <c r="D369">
         <v>2</v>
@@ -6420,10 +6420,10 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>0.0012665631894460683</v>
+        <v>0.0019870148318287262</v>
       </c>
       <c r="C370">
-        <v>0.99873343681055393</v>
+        <v>0.99801298516817127</v>
       </c>
       <c r="D370">
         <v>2</v>
@@ -6434,10 +6434,10 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>0.00022022904734286808</v>
+        <v>0.00059059466863753407</v>
       </c>
       <c r="C371">
-        <v>0.99977977095265713</v>
+        <v>0.99940940533136247</v>
       </c>
       <c r="D371">
         <v>2</v>
@@ -6448,10 +6448,10 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>0.00029943323429804103</v>
+        <v>0.00052461197105990731</v>
       </c>
       <c r="C372">
-        <v>0.99970056676570196</v>
+        <v>0.99947538802894009</v>
       </c>
       <c r="D372">
         <v>2</v>
@@ -6462,10 +6462,10 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>0.0010882165017740419</v>
+        <v>0.0024243679222898384</v>
       </c>
       <c r="C373">
-        <v>0.99891178349822596</v>
+        <v>0.99757563207771016</v>
       </c>
       <c r="D373">
         <v>2</v>
@@ -6476,10 +6476,10 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>0.00063278449296155781</v>
+        <v>0.0009508551340214888</v>
       </c>
       <c r="C374">
-        <v>0.99936721550703844</v>
+        <v>0.99904914486597851</v>
       </c>
       <c r="D374">
         <v>2</v>
@@ -6490,10 +6490,10 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>0.0011179400765976011</v>
+        <v>0.0025864264840267381</v>
       </c>
       <c r="C375">
-        <v>0.9988820599234024</v>
+        <v>0.99741357351597326</v>
       </c>
       <c r="D375">
         <v>2</v>
@@ -6504,10 +6504,10 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>0.0042199005528905653</v>
+        <v>0.010725838612298477</v>
       </c>
       <c r="C376">
-        <v>0.99578009944710943</v>
+        <v>0.98927416138770152</v>
       </c>
       <c r="D376">
         <v>2</v>
@@ -6518,10 +6518,10 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>0.0029356422481282562</v>
+        <v>0.0084613561795245928</v>
       </c>
       <c r="C377">
-        <v>0.99706435775187174</v>
+        <v>0.99153864382047541</v>
       </c>
       <c r="D377">
         <v>2</v>
@@ -6532,10 +6532,10 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>0.0013447462046303205</v>
+        <v>0.0020723488613200169</v>
       </c>
       <c r="C378">
-        <v>0.99865525379536968</v>
+        <v>0.99792765113867998</v>
       </c>
       <c r="D378">
         <v>2</v>
@@ -6546,10 +6546,10 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>0.00064624026079407315</v>
+        <v>0.0014467650425185052</v>
       </c>
       <c r="C379">
-        <v>0.99935375973920593</v>
+        <v>0.99855323495748149</v>
       </c>
       <c r="D379">
         <v>2</v>
@@ -6560,10 +6560,10 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>0.0014797271855264693</v>
+        <v>0.0026495874946462772</v>
       </c>
       <c r="C380">
-        <v>0.99852027281447353</v>
+        <v>0.99735041250535372</v>
       </c>
       <c r="D380">
         <v>2</v>
@@ -6574,10 +6574,10 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>0.00055459802148860593</v>
+        <v>0.0005320567639364171</v>
       </c>
       <c r="C381">
-        <v>0.99944540197851139</v>
+        <v>0.99946794323606358</v>
       </c>
       <c r="D381">
         <v>2</v>
@@ -6588,10 +6588,10 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>0.0001420845736198606</v>
+        <v>0.00019749982138062006</v>
       </c>
       <c r="C382">
-        <v>0.99985791542638014</v>
+        <v>0.99980250017861938</v>
       </c>
       <c r="D382">
         <v>2</v>
@@ -6602,10 +6602,10 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>0.001908680264453233</v>
+        <v>0.0036888246861106477</v>
       </c>
       <c r="C383">
-        <v>0.99809131973554677</v>
+        <v>0.99631117531388935</v>
       </c>
       <c r="D383">
         <v>2</v>
@@ -6616,10 +6616,10 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>0.0014796318189622681</v>
+        <v>0.0020439736519674012</v>
       </c>
       <c r="C384">
-        <v>0.99852036818103773</v>
+        <v>0.9979560263480326</v>
       </c>
       <c r="D384">
         <v>2</v>
@@ -6630,10 +6630,10 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>0.0033623893676625327</v>
+        <v>0.0057146181463291201</v>
       </c>
       <c r="C385">
-        <v>0.99663761063233747</v>
+        <v>0.99428538185367088</v>
       </c>
       <c r="D385">
         <v>2</v>
@@ -6644,10 +6644,10 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>0.001598143353524706</v>
+        <v>0.0046125274524464466</v>
       </c>
       <c r="C386">
-        <v>0.99840185664647529</v>
+        <v>0.99538747254755355</v>
       </c>
       <c r="D386">
         <v>2</v>
@@ -6658,10 +6658,10 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>0.0033186815432667549</v>
+        <v>0.016616783642376509</v>
       </c>
       <c r="C387">
-        <v>0.99668131845673325</v>
+        <v>0.98338321635762349</v>
       </c>
       <c r="D387">
         <v>2</v>
@@ -6672,10 +6672,10 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>0.0012765641950002182</v>
+        <v>0.002318166974556668</v>
       </c>
       <c r="C388">
-        <v>0.99872343580499978</v>
+        <v>0.99768183302544333</v>
       </c>
       <c r="D388">
         <v>2</v>
@@ -6686,10 +6686,10 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>0.094280471722656523</v>
+        <v>0.1333738538165441</v>
       </c>
       <c r="C389">
-        <v>0.90571952827734348</v>
+        <v>0.8666261461834559</v>
       </c>
       <c r="D389">
         <v>2</v>
@@ -6700,10 +6700,10 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>0.0037558915458889564</v>
+        <v>0.0065923103833762653</v>
       </c>
       <c r="C390">
-        <v>0.99624410845411104</v>
+        <v>0.99340768961662373</v>
       </c>
       <c r="D390">
         <v>2</v>
